--- a/projects/alignment-opti/plots_pub/max-single-anno_params.xlsx
+++ b/projects/alignment-opti/plots_pub/max-single-anno_params.xlsx
@@ -456,22 +456,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>99.2558759124741</v>
+        <v>99.26115783272964</v>
       </c>
       <c r="D2">
-        <v>77.41177552931075</v>
+        <v>77.32359877882148</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,10 +482,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>98.80561096938931</v>
+        <v>98.81143903419252</v>
       </c>
       <c r="D3">
-        <v>77.23885549127266</v>
+        <v>77.23847768280635</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -508,10 +508,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>99.31227080546564</v>
+        <v>99.31047891074304</v>
       </c>
       <c r="D4">
-        <v>77.51982252871323</v>
+        <v>77.52248428197802</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -534,10 +534,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>99.0940414925946</v>
+        <v>99.1161566413444</v>
       </c>
       <c r="D5">
-        <v>77.29826861092549</v>
+        <v>77.29794816096184</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>98.6731113624285</v>
+        <v>98.67248166964302</v>
       </c>
       <c r="D6">
-        <v>76.15219871806326</v>
+        <v>76.15242942857471</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -589,7 +589,7 @@
         <v>99.28484769585128</v>
       </c>
       <c r="D7">
-        <v>77.67272198762396</v>
+        <v>77.67248501967623</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -612,10 +612,10 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>99.06460288130722</v>
+        <v>99.06309625916484</v>
       </c>
       <c r="D8">
-        <v>77.39226692187947</v>
+        <v>77.39181445370848</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -638,10 +638,10 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>98.81498315421976</v>
+        <v>98.81595185923554</v>
       </c>
       <c r="D9">
-        <v>77.67826420266</v>
+        <v>77.67681649434408</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>98.7892614494842</v>
+        <v>98.78542577639028</v>
       </c>
       <c r="D10">
-        <v>77.89394875534713</v>
+        <v>77.89249954840965</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>

--- a/projects/alignment-opti/plots_pub/max-single-anno_params.xlsx
+++ b/projects/alignment-opti/plots_pub/max-single-anno_params.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>sample_name_unique_simple</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>S8</t>
-  </si>
-  <si>
-    <t>S9</t>
   </si>
 </sst>
 </file>
@@ -419,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,10 +453,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>99.26115783272964</v>
+        <v>99.27232944997668</v>
       </c>
       <c r="D2">
-        <v>77.32359877882148</v>
+        <v>77.06619675504865</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -468,10 +465,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,10 +479,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>98.81143903419252</v>
+        <v>99.31761775484055</v>
       </c>
       <c r="D3">
-        <v>77.23847768280635</v>
+        <v>77.30185823032386</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -497,7 +494,7 @@
         <v>0.8</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,10 +505,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>99.31047891074304</v>
+        <v>98.67906208244496</v>
       </c>
       <c r="D4">
-        <v>77.52248428197802</v>
+        <v>75.92257468400956</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -523,7 +520,7 @@
         <v>0.8</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,10 +531,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>99.1161566413444</v>
+        <v>99.29151210483801</v>
       </c>
       <c r="D5">
-        <v>77.29794816096184</v>
+        <v>77.31123566041849</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -549,7 +546,7 @@
         <v>0.8</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,10 +557,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>98.67248166964302</v>
+        <v>98.82335277137378</v>
       </c>
       <c r="D6">
-        <v>76.15242942857471</v>
+        <v>77.15726338055643</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -575,7 +572,7 @@
         <v>0.8</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,10 +583,10 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>99.28484769585128</v>
+        <v>98.7938244478818</v>
       </c>
       <c r="D7">
-        <v>77.67248501967623</v>
+        <v>77.49641283613835</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -601,7 +598,7 @@
         <v>0.8</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,10 +609,10 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>99.06309625916484</v>
+        <v>99.09208432479556</v>
       </c>
       <c r="D8">
-        <v>77.39181445370848</v>
+        <v>77.34105247934632</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -627,7 +624,7 @@
         <v>0.8</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,10 +635,10 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>98.81595185923554</v>
+        <v>98.56039592053354</v>
       </c>
       <c r="D9">
-        <v>77.67681649434408</v>
+        <v>75.55707046124016</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -653,33 +650,7 @@
         <v>0.8</v>
       </c>
       <c r="H9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>98.78542577639028</v>
-      </c>
-      <c r="D10">
-        <v>77.89249954840965</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.8</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
